--- a/EmbibeMobileApp/test-data/DeeperLogins.xlsx
+++ b/EmbibeMobileApp/test-data/DeeperLogins.xlsx
@@ -14839,19 +14839,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A101" sqref="A16:XFD101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="15" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="15" width="13.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="15" width="10.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="15" width="11.28515625" collapsed="true"/>
-    <col min="5" max="16384" style="15" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" style="15" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="15" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
@@ -15035,522 +15035,6 @@
         <v>4792</v>
       </c>
       <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:4" s="18" customFormat="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:4" s="18" customFormat="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:4" s="18" customFormat="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:4" s="18" customFormat="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4" s="18" customFormat="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:4" s="18" customFormat="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:4" s="18" customFormat="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" s="18" customFormat="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="1:4" s="18" customFormat="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-    </row>
-    <row r="25" spans="1:4" s="18" customFormat="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="1:4" s="18" customFormat="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:4" s="18" customFormat="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:4" s="18" customFormat="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4" s="18" customFormat="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" s="18" customFormat="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:4" s="18" customFormat="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-    </row>
-    <row r="32" spans="1:4" s="18" customFormat="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="1:4" s="18" customFormat="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="17"/>
-    </row>
-    <row r="34" spans="1:4" s="18" customFormat="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="1:4" s="18" customFormat="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="17"/>
-    </row>
-    <row r="36" spans="1:4" s="18" customFormat="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="17"/>
-    </row>
-    <row r="37" spans="1:4" s="18" customFormat="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
-    </row>
-    <row r="38" spans="1:4" s="18" customFormat="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" s="18" customFormat="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" s="18" customFormat="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:4" s="18" customFormat="1">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="17"/>
-    </row>
-    <row r="42" spans="1:4" s="18" customFormat="1">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="17"/>
-    </row>
-    <row r="43" spans="1:4" s="18" customFormat="1">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:4" s="18" customFormat="1">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="17"/>
-    </row>
-    <row r="45" spans="1:4" s="18" customFormat="1">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="1:4" s="18" customFormat="1">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="1:4" s="18" customFormat="1">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="17"/>
-    </row>
-    <row r="48" spans="1:4" s="18" customFormat="1">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="17"/>
-    </row>
-    <row r="49" spans="1:4" s="18" customFormat="1">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="17"/>
-    </row>
-    <row r="50" spans="1:4" s="18" customFormat="1">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="1:4" s="18" customFormat="1">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="1:4" s="18" customFormat="1">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="1:4" s="18" customFormat="1">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="17"/>
-    </row>
-    <row r="54" spans="1:4" s="18" customFormat="1">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="17"/>
-    </row>
-    <row r="55" spans="1:4" s="18" customFormat="1">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="17"/>
-    </row>
-    <row r="56" spans="1:4" s="18" customFormat="1">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="1:4" s="18" customFormat="1">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="17"/>
-    </row>
-    <row r="58" spans="1:4" s="18" customFormat="1">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="17"/>
-    </row>
-    <row r="59" spans="1:4" s="18" customFormat="1">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="17"/>
-    </row>
-    <row r="60" spans="1:4" s="18" customFormat="1">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="17"/>
-    </row>
-    <row r="61" spans="1:4" s="18" customFormat="1">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="17"/>
-    </row>
-    <row r="62" spans="1:4" s="18" customFormat="1">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="1:4" s="18" customFormat="1">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="17"/>
-    </row>
-    <row r="64" spans="1:4" s="18" customFormat="1">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="17"/>
-    </row>
-    <row r="65" spans="1:4" s="18" customFormat="1">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="17"/>
-    </row>
-    <row r="66" spans="1:4" s="18" customFormat="1">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="17"/>
-    </row>
-    <row r="67" spans="1:4" s="18" customFormat="1">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="17"/>
-    </row>
-    <row r="68" spans="1:4" s="18" customFormat="1">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="17"/>
-    </row>
-    <row r="69" spans="1:4" s="18" customFormat="1">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="17"/>
-    </row>
-    <row r="70" spans="1:4" s="18" customFormat="1">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="17"/>
-    </row>
-    <row r="71" spans="1:4" s="18" customFormat="1">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="17"/>
-    </row>
-    <row r="72" spans="1:4" s="18" customFormat="1">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="17"/>
-    </row>
-    <row r="73" spans="1:4" s="18" customFormat="1">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="17"/>
-    </row>
-    <row r="74" spans="1:4" s="18" customFormat="1">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="17"/>
-    </row>
-    <row r="75" spans="1:4" s="18" customFormat="1">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="17"/>
-    </row>
-    <row r="76" spans="1:4" s="18" customFormat="1">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="17"/>
-    </row>
-    <row r="77" spans="1:4" s="18" customFormat="1">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="17"/>
-    </row>
-    <row r="78" spans="1:4" s="18" customFormat="1">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="17"/>
-    </row>
-    <row r="79" spans="1:4" s="18" customFormat="1">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="17"/>
-    </row>
-    <row r="80" spans="1:4" s="18" customFormat="1">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="17"/>
-    </row>
-    <row r="81" spans="1:4" s="18" customFormat="1">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="17"/>
-    </row>
-    <row r="82" spans="1:4" s="18" customFormat="1">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="17"/>
-    </row>
-    <row r="83" spans="1:4" s="18" customFormat="1">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="17"/>
-    </row>
-    <row r="84" spans="1:4" s="18" customFormat="1">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="17"/>
-    </row>
-    <row r="85" spans="1:4" s="18" customFormat="1">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="17"/>
-    </row>
-    <row r="86" spans="1:4" s="18" customFormat="1">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="17"/>
-    </row>
-    <row r="87" spans="1:4" s="18" customFormat="1">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="17"/>
-    </row>
-    <row r="88" spans="1:4" s="18" customFormat="1">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="17"/>
-    </row>
-    <row r="89" spans="1:4" s="18" customFormat="1">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="17"/>
-    </row>
-    <row r="90" spans="1:4" s="18" customFormat="1">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="17"/>
-    </row>
-    <row r="91" spans="1:4" s="18" customFormat="1">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="17"/>
-    </row>
-    <row r="92" spans="1:4" s="18" customFormat="1">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="17"/>
-    </row>
-    <row r="93" spans="1:4" s="18" customFormat="1">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="17"/>
-    </row>
-    <row r="94" spans="1:4" s="18" customFormat="1">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="17"/>
-    </row>
-    <row r="95" spans="1:4" s="18" customFormat="1">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="17"/>
-    </row>
-    <row r="96" spans="1:4" s="18" customFormat="1">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="17"/>
-    </row>
-    <row r="97" spans="1:4" s="18" customFormat="1">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="17"/>
-    </row>
-    <row r="98" spans="1:4" s="18" customFormat="1">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="17"/>
-    </row>
-    <row r="99" spans="1:4" s="18" customFormat="1">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="17"/>
-    </row>
-    <row r="100" spans="1:4" s="18" customFormat="1">
-      <c r="A100" s="16"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="17"/>
-    </row>
-    <row r="101" spans="1:4" s="18" customFormat="1">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D15">
@@ -15571,10 +15055,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="13.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="10.7109375" collapsed="true"/>
-    <col min="4" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
@@ -60535,9 +60019,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1">

--- a/EmbibeMobileApp/test-data/DeeperLogins.xlsx
+++ b/EmbibeMobileApp/test-data/DeeperLogins.xlsx
@@ -14470,7 +14470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -14493,11 +14493,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -14529,22 +14544,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14841,205 +14859,202 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A101" sqref="A16:XFD101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.7109375" style="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.28515625" style="15" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="15" collapsed="1"/>
+    <col min="1" max="1" width="11.5703125" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.7109375" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.7109375" style="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.28515625" style="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="12" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="15" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="18" customFormat="1">
-      <c r="A2" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:4" s="14" customFormat="1">
+      <c r="A2" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>587</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>4792</v>
       </c>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:4" s="18" customFormat="1">
-      <c r="A3" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" s="14" customFormat="1">
+      <c r="A3" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>615</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>4792</v>
       </c>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" s="18" customFormat="1">
-      <c r="A4" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="B4" s="16" t="s">
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" s="14" customFormat="1">
+      <c r="A4" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>4792</v>
       </c>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:4" s="18" customFormat="1">
-      <c r="A5" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="B5" s="16" t="s">
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" s="14" customFormat="1">
+      <c r="A5" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>579</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="18" t="s">
         <v>4792</v>
       </c>
-      <c r="D5" s="17"/>
-    </row>
-    <row r="6" spans="1:4" s="18" customFormat="1">
-      <c r="A6" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="B6" s="16" t="s">
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:4" s="14" customFormat="1">
+      <c r="A6" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>4792</v>
       </c>
-      <c r="D6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" s="18" customFormat="1">
-      <c r="A7" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:4" s="14" customFormat="1">
+      <c r="A7" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>4792</v>
       </c>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:4" s="18" customFormat="1">
-      <c r="A8" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="B8" s="16" t="s">
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" s="14" customFormat="1">
+      <c r="A8" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>594</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>4792</v>
       </c>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="1:4" s="18" customFormat="1">
-      <c r="A9" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="B9" s="16" t="s">
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:4" s="14" customFormat="1">
+      <c r="A9" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>4792</v>
       </c>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:4" s="18" customFormat="1">
-      <c r="A10" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" s="14" customFormat="1">
+      <c r="A10" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>4792</v>
       </c>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:4" s="18" customFormat="1">
-      <c r="A11" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" s="14" customFormat="1">
+      <c r="A11" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="18" t="s">
         <v>4792</v>
       </c>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:4" s="18" customFormat="1">
-      <c r="A12" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="B12" s="16" t="s">
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:4" s="14" customFormat="1">
+      <c r="A12" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>608</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="18" t="s">
         <v>4792</v>
       </c>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:4" s="18" customFormat="1">
-      <c r="A13" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:4" s="14" customFormat="1">
+      <c r="A13" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="B13" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="18" t="s">
         <v>4792</v>
       </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:4" s="18" customFormat="1">
-      <c r="A14" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="B14" s="16" t="s">
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:4" s="14" customFormat="1">
+      <c r="A14" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>608</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="18" t="s">
         <v>4792</v>
       </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:4" s="18" customFormat="1">
-      <c r="A15" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" s="14" customFormat="1">
+      <c r="A15" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="18" t="s">
         <v>4792</v>
       </c>
-      <c r="D15" s="17"/>
+      <c r="D15" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D15">
-    <filterColumn colId="0"/>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -60036,24 +60051,24 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>4792</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="B3" s="16" t="s">
+      <c r="A3" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>4792</v>
       </c>
     </row>
